--- a/.templates/Data/Configs/ApplicationDispatcherConfig.xlsx
+++ b/.templates/Data/Configs/ApplicationDispatcherConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyash\Documents\UiPath\LazyFramework\.templates\Data\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yash.brahmbhatt\Documents\UiPath\Internal\LazyFramework\.templates\Data\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B2B86A-4930-4CB5-A5FE-756D247FD779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD220AC3-B46C-43B5-A68B-4BAA64A31D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25170" yWindow="9760" windowWidth="20340" windowHeight="11840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11820" yWindow="2730" windowWidth="37305" windowHeight="15765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t>A list of the process names to kill in KillProcesses.</t>
+  </si>
+  <si>
+    <t>Maintenance_Start</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>The start of a maintenance window.</t>
+  </si>
+  <si>
+    <t>Maintenance_End</t>
+  </si>
+  <si>
+    <t>The end of a maintenance window.</t>
   </si>
 </sst>
 </file>
@@ -190,8 +205,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,20 +488,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -507,7 +523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -518,7 +534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -529,7 +545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -540,7 +556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -551,7 +567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -562,12 +578,34 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -583,13 +621,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,12 +651,12 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -646,7 +684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -660,7 +698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -674,7 +712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -688,7 +726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -702,7 +740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -729,16 +767,16 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -766,7 +804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -790,9 +828,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
